--- a/Midterm/Midterm_Conversions_NASA_Format.xlsx
+++ b/Midterm/Midterm_Conversions_NASA_Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/414454603def152e/Desktop/Midterm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/414454603def152e/Desktop/StarkChristopher_CSC17A_48290/Midterm/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{484F2D78-63A0-4326-A459-B6202512A21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42405" yWindow="2190" windowWidth="28800" windowHeight="15435" xr2:uid="{6B279B3F-49E6-4BCC-B45D-016F3EC2C756}"/>
+    <workbookView minimized="1" xWindow="9075" yWindow="4155" windowWidth="17850" windowHeight="15435" xr2:uid="{6B279B3F-49E6-4BCC-B45D-016F3EC2C756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642BFB4D-D4AB-4DF6-A29C-F45BDC3F92E2}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,12 +1649,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1821,18 +1821,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84CF2CF6-B11E-47C9-B282-888FA0A27D67}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC7982B-EFF1-4A8D-B98C-6C559C58D9A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="afecfe45-4bf6-4479-91db-3944002796cf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1857,18 +1866,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC7982B-EFF1-4A8D-B98C-6C559C58D9A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84CF2CF6-B11E-47C9-B282-888FA0A27D67}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="afecfe45-4bf6-4479-91db-3944002796cf"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>